--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.564056666666667</v>
+        <v>4.269024333333333</v>
       </c>
       <c r="H2">
-        <v>13.69217</v>
+        <v>12.807073</v>
       </c>
       <c r="I2">
-        <v>0.3012303010600196</v>
+        <v>0.239419143716247</v>
       </c>
       <c r="J2">
-        <v>0.3202575519860646</v>
+        <v>0.2624375843396372</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>18.01284682356444</v>
+        <v>12.40939773026077</v>
       </c>
       <c r="R2">
-        <v>162.11562141208</v>
+        <v>111.684579572347</v>
       </c>
       <c r="S2">
-        <v>0.002434630002392727</v>
+        <v>0.001321719545066018</v>
       </c>
       <c r="T2">
-        <v>0.002663800964739218</v>
+        <v>0.001476090912807412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.564056666666667</v>
+        <v>4.269024333333333</v>
       </c>
       <c r="H3">
-        <v>13.69217</v>
+        <v>12.807073</v>
       </c>
       <c r="I3">
-        <v>0.3012303010600196</v>
+        <v>0.239419143716247</v>
       </c>
       <c r="J3">
-        <v>0.3202575519860646</v>
+        <v>0.2624375843396372</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>848.0142539595122</v>
+        <v>793.1964367591121</v>
       </c>
       <c r="R3">
-        <v>7632.12828563561</v>
+        <v>7138.767930832009</v>
       </c>
       <c r="S3">
-        <v>0.1146182480409259</v>
+        <v>0.08448300685735287</v>
       </c>
       <c r="T3">
-        <v>0.125407227959925</v>
+        <v>0.09435027209388509</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.564056666666667</v>
+        <v>4.269024333333333</v>
       </c>
       <c r="H4">
-        <v>13.69217</v>
+        <v>12.807073</v>
       </c>
       <c r="I4">
-        <v>0.3012303010600196</v>
+        <v>0.239419143716247</v>
       </c>
       <c r="J4">
-        <v>0.3202575519860646</v>
+        <v>0.2624375843396372</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>535.5437818913789</v>
+        <v>585.1624597095774</v>
       </c>
       <c r="R4">
-        <v>4819.894037022411</v>
+        <v>5266.462137386197</v>
       </c>
       <c r="S4">
-        <v>0.07238450266961229</v>
+        <v>0.06232539860907512</v>
       </c>
       <c r="T4">
-        <v>0.07919803331675961</v>
+        <v>0.0696047469884092</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.564056666666667</v>
+        <v>4.269024333333333</v>
       </c>
       <c r="H5">
-        <v>13.69217</v>
+        <v>12.807073</v>
       </c>
       <c r="I5">
-        <v>0.3012303010600196</v>
+        <v>0.239419143716247</v>
       </c>
       <c r="J5">
-        <v>0.3202575519860646</v>
+        <v>0.2624375843396372</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>189.2192810551933</v>
+        <v>124.7098829617548</v>
       </c>
       <c r="R5">
-        <v>1135.31568633116</v>
+        <v>748.259297770529</v>
       </c>
       <c r="S5">
-        <v>0.02557502116131328</v>
+        <v>0.01328279529404552</v>
       </c>
       <c r="T5">
-        <v>0.01865492661466096</v>
+        <v>0.009889447174283012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.564056666666667</v>
+        <v>4.269024333333333</v>
       </c>
       <c r="H6">
-        <v>13.69217</v>
+        <v>12.807073</v>
       </c>
       <c r="I6">
-        <v>0.3012303010600196</v>
+        <v>0.239419143716247</v>
       </c>
       <c r="J6">
-        <v>0.3202575519860646</v>
+        <v>0.2624375843396372</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>637.8915112179656</v>
+        <v>732.3870297239928</v>
       </c>
       <c r="R6">
-        <v>5741.02360096169</v>
+        <v>6591.483267515936</v>
       </c>
       <c r="S6">
-        <v>0.08621789918577548</v>
+        <v>0.07800622341070745</v>
       </c>
       <c r="T6">
-        <v>0.09433356312997988</v>
+        <v>0.08711702717025249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>8.00061</v>
       </c>
       <c r="I7">
-        <v>0.1760149164788199</v>
+        <v>0.1495657278917394</v>
       </c>
       <c r="J7">
-        <v>0.187132921443075</v>
+        <v>0.1639454043592587</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>10.52526826829333</v>
+        <v>7.752181280976664</v>
       </c>
       <c r="R7">
-        <v>94.72741441463999</v>
+        <v>69.76963152878999</v>
       </c>
       <c r="S7">
-        <v>0.001422603220924315</v>
+        <v>0.0008256814503556461</v>
       </c>
       <c r="T7">
-        <v>0.001556512418155941</v>
+        <v>0.0009221176234348088</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>8.00061</v>
       </c>
       <c r="I8">
-        <v>0.1760149164788199</v>
+        <v>0.1495657278917394</v>
       </c>
       <c r="J8">
-        <v>0.187132921443075</v>
+        <v>0.1639454043592587</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>495.5117647802366</v>
@@ -948,10 +948,10 @@
         <v>4459.60588302213</v>
       </c>
       <c r="S8">
-        <v>0.06697374495486923</v>
+        <v>0.05277674215591696</v>
       </c>
       <c r="T8">
-        <v>0.07327796266687128</v>
+        <v>0.05894084701610258</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>8.00061</v>
       </c>
       <c r="I9">
-        <v>0.1760149164788199</v>
+        <v>0.1495657278917394</v>
       </c>
       <c r="J9">
-        <v>0.187132921443075</v>
+        <v>0.1639454043592587</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>312.9289905718367</v>
+        <v>365.5524276918732</v>
       </c>
       <c r="R9">
-        <v>2816.36091514653</v>
+        <v>3289.971849226859</v>
       </c>
       <c r="S9">
-        <v>0.04229571907911797</v>
+        <v>0.03893482979020674</v>
       </c>
       <c r="T9">
-        <v>0.04627700191674512</v>
+        <v>0.04348225662514272</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>8.00061</v>
       </c>
       <c r="I10">
-        <v>0.1760149164788199</v>
+        <v>0.1495657278917394</v>
       </c>
       <c r="J10">
-        <v>0.187132921443075</v>
+        <v>0.1639454043592587</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>110.56462724338</v>
+        <v>77.90657058975499</v>
       </c>
       <c r="R10">
-        <v>663.38776346028</v>
+        <v>467.43942353853</v>
       </c>
       <c r="S10">
-        <v>0.01494399865422461</v>
+        <v>0.008297794887051358</v>
       </c>
       <c r="T10">
-        <v>0.01090044838930006</v>
+        <v>0.006177961971251386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>8.00061</v>
       </c>
       <c r="I11">
-        <v>0.1760149164788199</v>
+        <v>0.1495657278917394</v>
       </c>
       <c r="J11">
-        <v>0.187132921443075</v>
+        <v>0.1639454043592587</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>372.7328249331966</v>
+        <v>457.5239786546132</v>
       </c>
       <c r="R11">
-        <v>3354.59542439877</v>
+        <v>4117.71580789152</v>
       </c>
       <c r="S11">
-        <v>0.05037885056968377</v>
+        <v>0.0487306796082087</v>
       </c>
       <c r="T11">
-        <v>0.05512099605200259</v>
+        <v>0.05442222112332722</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.718648333333333</v>
+        <v>3.607962333333333</v>
       </c>
       <c r="H12">
-        <v>8.155944999999999</v>
+        <v>10.823887</v>
       </c>
       <c r="I12">
-        <v>0.1794323155335466</v>
+        <v>0.2023448884238746</v>
       </c>
       <c r="J12">
-        <v>0.1907661809510825</v>
+        <v>0.221798904202795</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>10.72962050474222</v>
+        <v>10.48779207945477</v>
       </c>
       <c r="R12">
-        <v>96.56658454267999</v>
+        <v>94.39012871509298</v>
       </c>
       <c r="S12">
-        <v>0.001450223623783881</v>
+        <v>0.001117050164505659</v>
       </c>
       <c r="T12">
-        <v>0.001586732720917137</v>
+        <v>0.001247516996424888</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.718648333333333</v>
+        <v>3.607962333333333</v>
       </c>
       <c r="H13">
-        <v>8.155944999999999</v>
+        <v>10.823887</v>
       </c>
       <c r="I13">
-        <v>0.1794323155335466</v>
+        <v>0.2023448884238746</v>
       </c>
       <c r="J13">
-        <v>0.1907661809510825</v>
+        <v>0.221798904202795</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>505.132321210576</v>
+        <v>670.3693029846301</v>
       </c>
       <c r="R13">
-        <v>4546.190890895185</v>
+        <v>6033.32372686167</v>
       </c>
       <c r="S13">
-        <v>0.06827406663941135</v>
+        <v>0.07140074235886783</v>
       </c>
       <c r="T13">
-        <v>0.07470068322578596</v>
+        <v>0.079740053294259</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.718648333333333</v>
+        <v>3.607962333333333</v>
       </c>
       <c r="H14">
-        <v>8.155944999999999</v>
+        <v>10.823887</v>
       </c>
       <c r="I14">
-        <v>0.1794323155335466</v>
+        <v>0.2023448884238746</v>
       </c>
       <c r="J14">
-        <v>0.1907661809510825</v>
+        <v>0.221798904202795</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>319.0046303981094</v>
+        <v>494.5495618349734</v>
       </c>
       <c r="R14">
-        <v>2871.041673582985</v>
+        <v>4450.946056514761</v>
       </c>
       <c r="S14">
-        <v>0.04311690715392161</v>
+        <v>0.05267425833948055</v>
       </c>
       <c r="T14">
-        <v>0.0471754881687606</v>
+        <v>0.05882639351443779</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.718648333333333</v>
+        <v>3.607962333333333</v>
       </c>
       <c r="H15">
-        <v>8.155944999999999</v>
+        <v>10.823887</v>
       </c>
       <c r="I15">
-        <v>0.1794323155335466</v>
+        <v>0.2023448884238746</v>
       </c>
       <c r="J15">
-        <v>0.1907661809510825</v>
+        <v>0.221798904202795</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>112.7112831074766</v>
+        <v>105.3984529455918</v>
       </c>
       <c r="R15">
-        <v>676.2676986448599</v>
+        <v>632.390717673551</v>
       </c>
       <c r="S15">
-        <v>0.01523414228464204</v>
+        <v>0.01122594329765126</v>
       </c>
       <c r="T15">
-        <v>0.01111208489583542</v>
+        <v>0.008358057981469194</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.718648333333333</v>
+        <v>3.607962333333333</v>
       </c>
       <c r="H16">
-        <v>8.155944999999999</v>
+        <v>10.823887</v>
       </c>
       <c r="I16">
-        <v>0.1794323155335466</v>
+        <v>0.2023448884238746</v>
       </c>
       <c r="J16">
-        <v>0.1907661809510825</v>
+        <v>0.221798904202795</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>379.9695798007627</v>
+        <v>618.9762836518647</v>
       </c>
       <c r="R16">
-        <v>3419.726218206865</v>
+        <v>5570.786552866783</v>
       </c>
       <c r="S16">
-        <v>0.05135697583178776</v>
+        <v>0.06592689426336931</v>
       </c>
       <c r="T16">
-        <v>0.05619119193978336</v>
+        <v>0.07362688241620412</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.700538</v>
+        <v>4.691815</v>
       </c>
       <c r="H17">
-        <v>5.401076</v>
+        <v>9.38363</v>
       </c>
       <c r="I17">
-        <v>0.1782370233711727</v>
+        <v>0.2631304584056895</v>
       </c>
       <c r="J17">
-        <v>0.1263302586697861</v>
+        <v>0.1922857150526861</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>10.65814491097067</v>
+        <v>13.63838522942833</v>
       </c>
       <c r="R17">
-        <v>63.948869465824</v>
+        <v>81.83031137656999</v>
       </c>
       <c r="S17">
-        <v>0.001440562928462395</v>
+        <v>0.001452618468091949</v>
       </c>
       <c r="T17">
-        <v>0.001050775111573244</v>
+        <v>0.001081518858535983</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.700538</v>
+        <v>4.691815</v>
       </c>
       <c r="H18">
-        <v>5.401076</v>
+        <v>9.38363</v>
       </c>
       <c r="I18">
-        <v>0.1782370233711727</v>
+        <v>0.2631304584056895</v>
       </c>
       <c r="J18">
-        <v>0.1263302586697861</v>
+        <v>0.1922857150526861</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>501.7673715764513</v>
+        <v>871.7521029042983</v>
       </c>
       <c r="R18">
-        <v>3010.604229458708</v>
+        <v>5230.51261742579</v>
       </c>
       <c r="S18">
-        <v>0.06781925750146525</v>
+        <v>0.09284993662918084</v>
       </c>
       <c r="T18">
-        <v>0.04946870869707866</v>
+        <v>0.06912961640246315</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.700538</v>
+        <v>4.691815</v>
       </c>
       <c r="H19">
-        <v>5.401076</v>
+        <v>9.38363</v>
       </c>
       <c r="I19">
-        <v>0.1782370233711727</v>
+        <v>0.2631304584056895</v>
       </c>
       <c r="J19">
-        <v>0.1263302586697861</v>
+        <v>0.1922857150526861</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>316.8795743102913</v>
+        <v>643.1150987978965</v>
       </c>
       <c r="R19">
-        <v>1901.277445861748</v>
+        <v>3858.69059278738</v>
       </c>
       <c r="S19">
-        <v>0.04282968296560503</v>
+        <v>0.06849790894649489</v>
       </c>
       <c r="T19">
-        <v>0.03124081843815484</v>
+        <v>0.05099878730939116</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.700538</v>
+        <v>4.691815</v>
       </c>
       <c r="H20">
-        <v>5.401076</v>
+        <v>9.38363</v>
       </c>
       <c r="I20">
-        <v>0.1782370233711727</v>
+        <v>0.2631304584056895</v>
       </c>
       <c r="J20">
-        <v>0.1263302586697861</v>
+        <v>0.1922857150526861</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>111.960454512812</v>
+        <v>137.0607553017475</v>
       </c>
       <c r="R20">
-        <v>447.841818051248</v>
+        <v>548.24302120699</v>
       </c>
       <c r="S20">
-        <v>0.01513265972382697</v>
+        <v>0.01459828132529552</v>
       </c>
       <c r="T20">
-        <v>0.007358707671625938</v>
+        <v>0.007245911160810694</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.700538</v>
+        <v>4.691815</v>
       </c>
       <c r="H21">
-        <v>5.401076</v>
+        <v>9.38363</v>
       </c>
       <c r="I21">
-        <v>0.1782370233711727</v>
+        <v>0.2631304584056895</v>
       </c>
       <c r="J21">
-        <v>0.1263302586697861</v>
+        <v>0.1922857150526861</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>377.4384044139553</v>
+        <v>804.9203245420266</v>
       </c>
       <c r="R21">
-        <v>2264.630426483732</v>
+        <v>4829.521947252159</v>
       </c>
       <c r="S21">
-        <v>0.05101486025181305</v>
+        <v>0.08573171303662633</v>
       </c>
       <c r="T21">
-        <v>0.03721124875135345</v>
+        <v>0.06382988132148511</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.501273333333333</v>
+        <v>2.595084333333333</v>
       </c>
       <c r="H22">
-        <v>7.50382</v>
+        <v>7.785253</v>
       </c>
       <c r="I22">
-        <v>0.1650854435564411</v>
+        <v>0.1455397815624493</v>
       </c>
       <c r="J22">
-        <v>0.1755130869499919</v>
+        <v>0.159532392045623</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>9.871712099075555</v>
+        <v>7.543511379040776</v>
       </c>
       <c r="R22">
-        <v>88.84540889167999</v>
+        <v>67.89160241136699</v>
       </c>
       <c r="S22">
-        <v>0.001334268074713839</v>
+        <v>0.0008034561100248161</v>
       </c>
       <c r="T22">
-        <v>0.001459862312199559</v>
+        <v>0.0008972964554201136</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.501273333333333</v>
+        <v>2.595084333333333</v>
       </c>
       <c r="H23">
-        <v>7.50382</v>
+        <v>7.785253</v>
       </c>
       <c r="I23">
-        <v>0.1650854435564411</v>
+        <v>0.1455397815624493</v>
       </c>
       <c r="J23">
-        <v>0.1755130869499919</v>
+        <v>0.159532392045623</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>464.7434496611177</v>
+        <v>482.1737909097721</v>
       </c>
       <c r="R23">
-        <v>4182.69104695006</v>
+        <v>4339.564118187949</v>
       </c>
       <c r="S23">
-        <v>0.06281507620884494</v>
+        <v>0.0513561203707691</v>
       </c>
       <c r="T23">
-        <v>0.06872783972958589</v>
+        <v>0.05735430249126675</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.501273333333333</v>
+        <v>2.595084333333333</v>
       </c>
       <c r="H24">
-        <v>7.50382</v>
+        <v>7.785253</v>
       </c>
       <c r="I24">
-        <v>0.1650854435564411</v>
+        <v>0.1455397815624493</v>
       </c>
       <c r="J24">
-        <v>0.1755130869499919</v>
+        <v>0.159532392045623</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>293.4979730336511</v>
+        <v>355.7126437040975</v>
       </c>
       <c r="R24">
-        <v>2641.48175730286</v>
+        <v>3201.413793336877</v>
       </c>
       <c r="S24">
-        <v>0.03966940805016955</v>
+        <v>0.03788679868518731</v>
       </c>
       <c r="T24">
-        <v>0.04340347705023871</v>
+        <v>0.04231181982844586</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.501273333333333</v>
+        <v>2.595084333333333</v>
       </c>
       <c r="H25">
-        <v>7.50382</v>
+        <v>7.785253</v>
       </c>
       <c r="I25">
-        <v>0.1650854435564411</v>
+        <v>0.1455397815624493</v>
       </c>
       <c r="J25">
-        <v>0.1755130869499919</v>
+        <v>0.159532392045623</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>103.6992255842267</v>
+        <v>75.80951482494483</v>
       </c>
       <c r="R25">
-        <v>622.19535350536</v>
+        <v>454.857088949669</v>
       </c>
       <c r="S25">
-        <v>0.0140160657726778</v>
+        <v>0.00807443839129782</v>
       </c>
       <c r="T25">
-        <v>0.01022359577989648</v>
+        <v>0.006011666231771173</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.501273333333333</v>
+        <v>2.595084333333333</v>
       </c>
       <c r="H26">
-        <v>7.50382</v>
+        <v>7.785253</v>
       </c>
       <c r="I26">
-        <v>0.1650854435564411</v>
+        <v>0.1455397815624493</v>
       </c>
       <c r="J26">
-        <v>0.1755130869499919</v>
+        <v>0.159532392045623</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>349.5883471873044</v>
+        <v>445.2085437726328</v>
       </c>
       <c r="R26">
-        <v>3146.29512468574</v>
+        <v>4006.876893953695</v>
       </c>
       <c r="S26">
-        <v>0.04725062545003499</v>
+        <v>0.0474189680051703</v>
       </c>
       <c r="T26">
-        <v>0.0516983120780713</v>
+        <v>0.05295730703871912</v>
       </c>
     </row>
   </sheetData>
